--- a/biology/Botanique/Lyophylle/Lyophylle.xlsx
+++ b/biology/Botanique/Lyophylle/Lyophylle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Lyophyllum (du nom vernaculaire les Lyophylles) regroupe des champignons agaricomycètes de la famille des Lyophyllaceae. 
 Le nom du genre, construit sur le grec luô, "délier" et phullon, "feuillet", signifie donc "à lames libres".
@@ -519,9 +531,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (29 octobre 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (29 octobre 2013) :
 Lyophyllum ambustum
 Lyophyllum anthracophilum
 Lyophyllum atratum
@@ -541,7 +555,7 @@
 Lyophyllum semitale
 Lyophyllum shimeji
 Lyophyllum sykosporum
-Selon Catalogue of Life                                   (29 octobre 2013)[2] :
+Selon Catalogue of Life                                   (29 octobre 2013) :
 Lyophyllum acutipes
 Lyophyllum admissum
 Lyophyllum aemiliae
@@ -663,7 +677,7 @@
 Lyophyllum urbanense
 Lyophyllum venezuelanum
 Lyophyllum violaceifolium
-Selon Index Fungorum                                      (29 octobre 2013)[3] :
+Selon Index Fungorum                                      (29 octobre 2013) :
 Lyophyllum acutipes Clémençon &amp; A.H. Sm. 1983
 Lyophyllum admissum (Britzelm.) Consiglio &amp; Contu 2001
 Lyophyllum aemiliae Consiglio 1998
